--- a/biology/Zoologie/Callicore_eunomia/Callicore_eunomia.xlsx
+++ b/biology/Zoologie/Callicore_eunomia/Callicore_eunomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore eunomia est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,80 +523,89 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore eunomia a été décrit par William Chapman Hewitson en 1853 sous le nom initial de Catagramma eunomia[1].
-Noms vernaculaires
- Callicore eunomia se nomme Eunomia Numberwing en anglais[2].
-Sous-espèces
- Callicore eunomia eunomia, présent en Équateur et au Pérou.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore eunomia a été décrit par William Chapman Hewitson en 1853 sous le nom initial de Catagramma eunomia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore eunomia se nomme Eunomia Numberwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore eunomia eunomia, présent en Équateur et au Pérou.
  Callicore eunomia alani Attal &amp; Crosson du Cormier, 2003
  Callicore eunomia ferrerorum Attal, 2000 ; présent au Venezuela.
  Callicore eunomia incarnata (Röber, 1915) ; présent en Bolivie et au Pérou.
- Callicore eunomia valeriae Neild, 1996 ; présent au Venezuela[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callicore_eunomia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore eunomia est un papillon d'une envergure de 30 mm à 40 mm, au dessus de couleur noire avec aux ailes antérieures une partie basale orange allant presque jusqu'au milieu du bord costal et à proximité de l'angle externe et aux ailes postérieures une petite bande bleue le long du bord externe, du côté de l'angle anal[3],[4].
-Le revers des ailes antérieures présente la même très partie orange que le dessus avec en plus une rayure beige à l'apex alors que les ailes postérieures sont ornementées de rayures beige, d'une bande submarginale bleue et de deux gros ocelles pupillés de bleu formant un 8.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callicore_eunomia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie n'est pas connue[2].
-</t>
+ Callicore eunomia valeriae Neild, 1996 ; présent au Venezuela.</t>
         </is>
       </c>
     </row>
@@ -609,18 +630,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore eunomia est un papillon d'une envergure de 30 mm à 40 mm, au dessus de couleur noire avec aux ailes antérieures une partie basale orange allant presque jusqu'au milieu du bord costal et à proximité de l'angle externe et aux ailes postérieures une petite bande bleue le long du bord externe, du côté de l'angle anal,.
+Le revers des ailes antérieures présente la même très partie orange que le dessus avec en plus une rayure beige à l'apex alors que les ailes postérieures sont ornementées de rayures beige, d'une bande submarginale bleue et de deux gros ocelles pupillés de bleu formant un 8.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Callicore eunomia est présent au Venezuela, en Équateur, en Bolivie, au Pérou et en Guyana[1],[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore eunomia est présent au Venezuela, en Équateur, en Bolivie, au Pérou et en Guyana,.
 Sur les autres projets Wikimedia :
 Callicore eunomia, sur Wikimedia CommonsCallicore eunomia, sur Wikispecies
-Biotope
- Callicore eunomia réside dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore eunomia réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_eunomia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
